--- a/caloTracker_meal.xlsx
+++ b/caloTracker_meal.xlsx
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t xml:space="preserve">Meal 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal 13</t>
   </si>
 </sst>
 </file>
@@ -592,16 +619,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="5">
-        <v>1089.5</v>
+        <v>745.5</v>
       </c>
       <c r="E2" s="5">
-        <v>37.99</v>
+        <v>29.39</v>
       </c>
       <c r="F2" s="5">
-        <v>29.94</v>
+        <v>28.44</v>
       </c>
       <c r="G2" s="5">
-        <v>167.4</v>
+        <v>92.9</v>
       </c>
       <c r="H2" t="s" s="5">
         <v>11</v>
@@ -644,16 +671,16 @@
         <v>13</v>
       </c>
       <c r="D4" s="5">
-        <v>701.53</v>
+        <v>677</v>
       </c>
       <c r="E4" s="5">
-        <v>13.06</v>
+        <v>12.6</v>
       </c>
       <c r="F4" s="5">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="G4" s="5">
-        <v>158.8</v>
+        <v>153.4</v>
       </c>
       <c r="H4" t="s" s="5">
         <v>16</v>
@@ -709,6 +736,188 @@
       </c>
       <c r="H6" t="s" s="5">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1695</v>
+      </c>
+      <c r="E7" s="5">
+        <v>68.3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>339.6</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5">
+        <v>911.32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19.6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.06</v>
+      </c>
+      <c r="G8" s="5">
+        <v>201.59</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1899.36</v>
+      </c>
+      <c r="E9" s="5">
+        <v>67.59</v>
+      </c>
+      <c r="F9" s="5">
+        <v>81.46</v>
+      </c>
+      <c r="G9" s="5">
+        <v>224.35</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5">
+        <v>846.82</v>
+      </c>
+      <c r="E10" s="5">
+        <v>30.86</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.63</v>
+      </c>
+      <c r="G10" s="5">
+        <v>173</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5">
+        <v>779</v>
+      </c>
+      <c r="E11" s="5">
+        <v>16.4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>172.8</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1131</v>
+      </c>
+      <c r="E12" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>31.7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>175.8</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1020.45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42.42</v>
+      </c>
+      <c r="F13" s="5">
+        <v>61.67</v>
+      </c>
+      <c r="G13" s="5">
+        <v>73.77</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
